--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>772564.5329083243</v>
+        <v>773348.6788463531</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -668,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,16 +715,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>105.6477946131965</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -759,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -798,13 +800,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="4">
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,11 +898,11 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -975,7 +977,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>19.47727621235018</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1145,49 +1147,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1415,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1436,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1451,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>90.0782315553148</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1509,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>205.5178444382804</v>
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>96.6646019074424</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>167.2147823537671</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1789,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>58.39471844666272</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1886,22 +1888,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,22 +1931,22 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.20907807295006</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2056,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2093,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>40.47627913313517</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>63.88882306452221</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2220,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2248,61 +2250,61 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.2038249569697</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2336,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2442,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>94.06887257838808</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2515,13 +2517,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>92.95466700954542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S28" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>62.4162677022923</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>123.3365499318637</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>40.61938961819902</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3026,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,16 +3107,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3126,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.886970932436812</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>36.43923176655766</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3226,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3244,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,70 +3268,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>40.47627913313511</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>118.3634851578964</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3396,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>149.3895849832728</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>38.88757752692707</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3746,17 +3748,17 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3825,13 +3827,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3882,7 +3884,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>56.18438237580112</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3910,40 +3912,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>181.0201173812374</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4053,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>614.4775954922324</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U2" t="n">
-        <v>406.8838132313431</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V2" t="n">
-        <v>199.2900309704538</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W2" t="n">
-        <v>199.2900309704538</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="Y2" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.8449139228332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>166.1299698690994</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4413,13 +4415,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
+        <v>16.44142755506243</v>
+      </c>
+      <c r="M3" t="n">
         <v>219.90409354896</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.5706756325438</v>
-      </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V3" t="n">
-        <v>441.0602509429012</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W3" t="n">
-        <v>441.0602509429012</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X3" t="n">
-        <v>441.0602509429012</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y3" t="n">
-        <v>441.0602509429012</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
         <v>38.93586374282289</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="C5" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4607,10 +4609,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.07469395038575</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>379.2691667366082</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4650,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4668,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="X6" t="n">
-        <v>406.8838132313431</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.2900309704538</v>
+        <v>547.4845037566762</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,43 +4892,43 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>599.8443290969091</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5054,7 +5056,7 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5063,28 +5065,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>552.6865112859393</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>393.4490562804838</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>246.9144983073688</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>108.1836728899843</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5127,43 +5129,43 @@
         <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>219.90409354896</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W12" t="n">
-        <v>774.2973583780361</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X12" t="n">
-        <v>566.7035761171468</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y12" t="n">
-        <v>359.1097938562575</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5223,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5287,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>551.9980277466466</v>
+        <v>513.308066045118</v>
       </c>
       <c r="C15" t="n">
-        <v>551.9980277466466</v>
+        <v>513.308066045118</v>
       </c>
       <c r="D15" t="n">
-        <v>551.9980277466466</v>
+        <v>364.3736563838668</v>
       </c>
       <c r="E15" t="n">
-        <v>392.7605727411911</v>
+        <v>205.1362013784113</v>
       </c>
       <c r="F15" t="n">
-        <v>246.2260147680761</v>
+        <v>205.1362013784113</v>
       </c>
       <c r="G15" t="n">
         <v>107.4951893506917</v>
@@ -5382,25 +5384,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>551.9980277466466</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T15" t="n">
-        <v>551.9980277466466</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U15" t="n">
-        <v>551.9980277466466</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V15" t="n">
-        <v>551.9980277466466</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W15" t="n">
-        <v>551.9980277466466</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X15" t="n">
-        <v>551.9980277466466</v>
+        <v>513.308066045118</v>
       </c>
       <c r="Y15" t="n">
-        <v>551.9980277466466</v>
+        <v>513.308066045118</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5458,28 +5460,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>90.33569644483418</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>90.33569644483418</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>90.33569644483418</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7844730889342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>90.33569644483418</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5601,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>875.9671776591715</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>875.9671776591715</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>875.9671776591715</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>875.9671776591715</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>875.9671776591715</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>875.9671776591715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>875.9671776591715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5704,7 +5706,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>761.6974622895962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5837,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,19 +5855,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>726.1056462496665</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>497.8820279860555</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V21" t="n">
-        <v>262.7299197543128</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W21" t="n">
         <v>19.28114311021272</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y23" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6075,43 +6077,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>906.5653369884105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>906.5653369884105</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>678.3417187247995</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V24" t="n">
-        <v>678.3417187247995</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W24" t="n">
-        <v>434.8929420806995</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X24" t="n">
-        <v>227.0414418751666</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6163,34 +6165,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E26" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>718.7806050553886</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>475.3318284112885</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>231.8830517671884</v>
@@ -6248,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>812.6742080953335</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W27" t="n">
-        <v>492.3847606029253</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X27" t="n">
-        <v>284.5332603973924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>76.77296163243852</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.583345248266</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6446,7 +6448,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>569.2254314512334</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>648.4405950311615</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C30" t="n">
-        <v>473.9875657500345</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6543,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>648.4405950311615</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>648.4405950311615</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>648.4405950311615</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>648.4405950311615</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6734,13 +6736,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y32" t="n">
         <v>506.1786963984129</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>343.4227147053767</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="C33" t="n">
-        <v>168.9696854242497</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>183.4549323908569</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>24.21747738540142</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W33" t="n">
-        <v>927.2498506959315</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X33" t="n">
-        <v>719.3983504903987</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="Y33" t="n">
-        <v>511.6380517254448</v>
+        <v>183.4549323908569</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C35" t="n">
-        <v>477.1596022224361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="36">
@@ -7023,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>777.5613083818946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>777.5613083818946</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W36" t="n">
-        <v>777.5613083818946</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X36" t="n">
-        <v>569.7098081763618</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
         <v>506.1786963984129</v>
@@ -7196,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>310.6614854603483</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C39" t="n">
-        <v>310.6614854603483</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D39" t="n">
-        <v>310.6614854603483</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E39" t="n">
-        <v>310.6614854603483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>310.6614854603483</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>171.9306600429638</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>58.5615244505431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>518.4217842253022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X39" t="n">
-        <v>518.4217842253022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y39" t="n">
-        <v>310.6614854603483</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="40">
@@ -7394,13 +7396,13 @@
         <v>224.0352098159517</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7415,13 +7417,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7439,16 +7441,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V41" t="n">
-        <v>406.8838132313431</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W41" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X41" t="n">
         <v>224.0352098159517</v>
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>350.131911841645</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7496,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M42" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M42" t="n">
-        <v>415.1460457653264</v>
-      </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7532,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>557.7256941025342</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>350.131911841645</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="C44" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D44" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E44" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G44" t="n">
-        <v>199.2900309704538</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>809.472903150106</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7843,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,16 +8063,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,13 +8464,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>401.0105146732905</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,10 +8704,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8775,10 +8777,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>279.489774794024</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9485,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9723,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10671,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11072,7 +11074,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>212.7243290316435</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.7075060082595</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,13 +22558,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,16 +22603,16 @@
         <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22623,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>67.06070437511929</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22647,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,10 +22676,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -22686,13 +22688,13 @@
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>19.30946265260823</v>
       </c>
     </row>
     <row r="4">
@@ -22723,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,10 +22786,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>173.6629242394455</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22863,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>158.2215652569457</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>125.5919361810337</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,10 +22910,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23033,13 +23035,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23063,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>230.1853526822936</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23087,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>51.83622708683056</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23163,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>189.8183595007702</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23324,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23339,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>22.15721268118166</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23397,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>204.3987039795849</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,13 +23551,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>80.31623474114394</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>164.2132562401886</v>
@@ -23577,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>40.67891525576823</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23622,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4.468388750070716</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
@@ -23631,7 +23633,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23677,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>152.0811711237432</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23817,22 +23819,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12.94875607969307</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23944,10 +23946,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23981,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>182.6195704309962</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.9909793584588</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.5300167065108</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24224,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>20.13049249612121</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24257,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24330,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>43.24093381563971</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>111.7041126250894</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>14.95552117266971</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24403,13 +24405,13 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24449,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>288.9757030627164</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>100.7281801183974</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24622,7 +24624,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
         <v>22.26949182588285</v>
@@ -24646,10 +24648,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S28" t="n">
-        <v>184.188810568277</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24677,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>320.3175739611883</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24725,7 +24727,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24759,22 +24761,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>14.00696723134696</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>192.1811975312262</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24974,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,16 +24995,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25014,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>84.50966191897827</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>215.2557513943619</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25114,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25132,10 +25134,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>156.0574714863295</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,19 +25156,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288197</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,10 +25198,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>48.16969849197095</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25284,13 +25286,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>15.53384003736741</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25436,10 +25438,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>8.255495472128132</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>50.509055324488</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25634,7 +25636,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25679,19 +25681,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>188.7109832972316</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25713,13 +25715,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>90.0472379818759</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25770,7 +25772,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>149.5886028276764</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>158.4546847345297</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,10 +25909,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25941,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>157.1962373724677</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.66257839606692</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426251.7179565927</v>
+        <v>426251.7179565928</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426251.7179565927</v>
+        <v>426251.7179565928</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426251.7179565928</v>
+        <v>426251.7179565929</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426251.7179565928</v>
+        <v>426251.7179565929</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448991.0855050285</v>
+        <v>448991.0855050287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448991.0855050285</v>
+        <v>448991.0855050287</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448991.0855050287</v>
+        <v>448991.0855050286</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426251.7179565927</v>
+        <v>426251.7179565928</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426251.717956593</v>
+        <v>426251.7179565928</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26322,7 @@
         <v>173533.4060184248</v>
       </c>
       <c r="E2" t="n">
-        <v>173533.4060184247</v>
+        <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184248</v>
@@ -26341,10 +26343,10 @@
         <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
+        <v>182776.7397844657</v>
+      </c>
+      <c r="M2" t="n">
         <v>182776.7397844656</v>
-      </c>
-      <c r="M2" t="n">
-        <v>182776.7397844657</v>
       </c>
       <c r="N2" t="n">
         <v>182776.7397844656</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
       <c r="C4" t="n">
         <v>47787.18911168983</v>
@@ -26436,7 +26438,7 @@
         <v>50385.00392753457</v>
       </c>
       <c r="I4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
@@ -26445,7 +26447,7 @@
         <v>50385.00392753458</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753458</v>
@@ -26457,7 +26459,7 @@
         <v>47787.18911168983</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168983</v>
+        <v>47787.18911168982</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10749.37538319762</v>
+        <v>10749.37538319761</v>
       </c>
       <c r="C6" t="n">
-        <v>79623.13196488748</v>
+        <v>79623.13196488749</v>
       </c>
       <c r="D6" t="n">
-        <v>79623.13196488751</v>
+        <v>79623.13196488746</v>
       </c>
       <c r="E6" t="n">
-        <v>113250.7319648874</v>
+        <v>113250.7319648875</v>
       </c>
       <c r="F6" t="n">
         <v>113250.7319648875</v>
@@ -26540,13 +26542,13 @@
         <v>117738.0670931694</v>
       </c>
       <c r="I6" t="n">
-        <v>117738.0670931694</v>
+        <v>117738.0670931693</v>
       </c>
       <c r="J6" t="n">
-        <v>63965.55620295994</v>
+        <v>63965.55620295997</v>
       </c>
       <c r="K6" t="n">
-        <v>117738.0670931694</v>
+        <v>117738.0670931693</v>
       </c>
       <c r="L6" t="n">
         <v>117738.0670931694</v>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,16 +34783,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="O3" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N6" t="n">
         <v>21.52426467247106</v>
       </c>
-      <c r="N6" t="n">
-        <v>205.5178444382804</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35182,13 +35184,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>171.5974510766996</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1480627106907</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35507,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36443,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>113.3808631277494</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37783,7 +37785,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37792,7 +37794,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,22 +37864,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M42" t="n">
-        <v>70.5902951096252</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>12.72573192223796</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773348.6788463531</v>
+        <v>674969.8346502463</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5059670.133665862</v>
+        <v>6810466.89324926</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>136.9013455552337</v>
       </c>
       <c r="W2" t="n">
         <v>205.5178444382804</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>140.0352163463491</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>186.3732331246961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -864,16 +864,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>22.03399177268427</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,64 +895,64 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C5" t="n">
+      <c r="T5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>13.9434706946005</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>19.47727621235018</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1098,10 +1098,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="U8" t="n">
-        <v>21.16030022554292</v>
+        <v>192.5500720523643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>200.8077900080715</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,31 +1369,31 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>19.20171008547518</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T11" t="n">
         <v>205.5178444382804</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,22 +1457,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>90.0782315553148</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>52.91548331185435</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>96.6646019074424</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>53.6747228092714</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,52 +1855,52 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1928,16 +1928,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>98.78615193062898</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>132.8796958111078</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>100.3796369526212</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -2362,28 +2362,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2450,19 +2450,19 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>176.1919908257736</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>94.06887257838808</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>69.90197782146217</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2696,10 +2696,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>124.476098900089</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>123.3365499318637</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="W32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>4.886970932436812</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3228,7 +3228,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>21.85442600983729</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -3310,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>118.3634851578964</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3423,61 +3423,61 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,46 +3520,46 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>149.3895849832728</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>54.0914246919431</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V41" t="n">
         <v>205.5178444382804</v>
@@ -3818,19 +3818,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>108.7702391107092</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>56.18438237580112</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,76 +3976,76 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>21.16030022554292</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>9.336946277399601</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>147.5063020130015</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,55 +4149,55 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81546818692397</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E2" t="n">
-        <v>37.81546818692397</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F2" t="n">
-        <v>37.81546818692397</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
-        <v>37.81546818692397</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I2" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4336,16 +4336,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,28 +4354,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>453.0030327087026</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V2" t="n">
-        <v>453.0030327087026</v>
+        <v>466.1017926944763</v>
       </c>
       <c r="W2" t="n">
-        <v>245.4092504478133</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X2" t="n">
-        <v>37.81546818692397</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y2" t="n">
-        <v>37.81546818692397</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.44142755506243</v>
+        <v>305.0177250813958</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U3" t="n">
-        <v>619.8847831118876</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V3" t="n">
-        <v>412.2910008509983</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W3" t="n">
-        <v>204.697218590109</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.44142755506243</v>
+        <v>446.4674385625565</v>
       </c>
     </row>
     <row r="4">
@@ -4512,13 +4512,13 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="U4" t="n">
         <v>38.93586374282289</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C5" t="n">
-        <v>199.2900309704538</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E5" t="n">
-        <v>16.44142755506243</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F5" t="n">
-        <v>16.44142755506243</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4579,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>822.0713777531216</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>379.2691667366082</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C6" t="n">
-        <v>379.2691667366082</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>379.2691667366082</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>379.2691667366082</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4655,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.4845037566762</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>804.3357255886647</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="D8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="E8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="F8" t="n">
-        <v>224.0352098159517</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>224.0352098159517</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4837,19 +4837,19 @@
         <v>245.4092504478133</v>
       </c>
       <c r="U8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="V8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="W8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="X8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>50.91422817269779</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>822.0713777531216</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="C9" t="n">
-        <v>814.3015730003187</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="D9" t="n">
-        <v>665.3671633390675</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4889,46 +4889,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>344.6483522333717</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>344.6483522333717</v>
       </c>
       <c r="Y9" t="n">
-        <v>822.0713777531216</v>
+        <v>344.6483522333717</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4983,31 +4983,31 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>148.224788009872</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5050,13 +5050,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5068,25 +5068,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S11" t="n">
-        <v>651.2927635848137</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T11" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="U11" t="n">
-        <v>443.6989813239244</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>552.6865112859393</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="C12" t="n">
-        <v>552.6865112859393</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="D12" t="n">
-        <v>552.6865112859393</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="E12" t="n">
-        <v>393.4490562804838</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="F12" t="n">
-        <v>246.9144983073688</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G12" t="n">
-        <v>108.1836728899843</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,10 +5126,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>219.90409354896</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M12" t="n">
-        <v>423.3667595428576</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N12" t="n">
         <v>435.9652341458732</v>
@@ -5144,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>720.9018483060073</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="W12" t="n">
-        <v>720.9018483060073</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="X12" t="n">
-        <v>720.9018483060073</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="Y12" t="n">
-        <v>720.9018483060073</v>
+        <v>358.8410177077111</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C14" t="n">
         <v>406.8838132313431</v>
@@ -5266,13 +5266,13 @@
         <v>406.8838132313431</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5290,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5308,22 +5308,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X14" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="Y14" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>513.308066045118</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="C15" t="n">
-        <v>513.308066045118</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="D15" t="n">
-        <v>364.3736563838668</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="E15" t="n">
-        <v>205.1362013784113</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="F15" t="n">
-        <v>205.1362013784113</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>70.6583192815992</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,46 +5363,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U15" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V15" t="n">
-        <v>513.308066045118</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W15" t="n">
-        <v>513.308066045118</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X15" t="n">
-        <v>513.308066045118</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="Y15" t="n">
-        <v>513.308066045118</v>
+        <v>238.8736563016672</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5545,22 +5545,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>864.273163661516</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>662.086569020282</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>662.086569020282</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>662.086569020282</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>662.086569020282</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
     </row>
     <row r="19">
@@ -5703,10 +5703,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>313.4946457291688</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>154.2571907237133</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5952,10 +5952,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="D23" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="E23" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="F23" t="n">
-        <v>467.067986854209</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
         <v>31.35113235729608</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X23" t="n">
-        <v>710.516763498309</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>132.7447050367114</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F24" t="n">
         <v>20.03527576299844</v>
@@ -6098,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>526.7184526376595</v>
+        <v>786.0854476058144</v>
       </c>
       <c r="W24" t="n">
-        <v>283.2696759935595</v>
+        <v>542.6366709617143</v>
       </c>
       <c r="X24" t="n">
-        <v>188.2506127830665</v>
+        <v>334.7851707561815</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.2506127830665</v>
+        <v>334.7851707561815</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6317,10 +6317,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>893.4490971051189</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>691.2625024638849</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>463.038884200274</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
         <v>262.7299197543128</v>
@@ -6448,10 +6448,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>257.2326523711826</v>
+        <v>320.2217382765386</v>
       </c>
       <c r="C30" t="n">
-        <v>257.2326523711826</v>
+        <v>145.7687089954116</v>
       </c>
       <c r="D30" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6578,16 +6578,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>527.9820370414925</v>
       </c>
       <c r="Y30" t="n">
-        <v>257.2326523711826</v>
+        <v>320.2217382765386</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E32" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="F32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="G32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E32" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="G32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6736,16 +6736,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X32" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y32" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="X32" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>24.21747738540142</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U33" t="n">
-        <v>634.6640077999109</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V33" t="n">
-        <v>634.6640077999109</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W33" t="n">
-        <v>391.2152311558108</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>391.2152311558108</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>183.4549323908569</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6876,25 +6876,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C35" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D35" t="n">
-        <v>315.6850394389064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E35" t="n">
-        <v>72.23626279480629</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F35" t="n">
-        <v>72.23626279480629</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I35" t="n">
         <v>31.35113235729608</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W35" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X35" t="n">
-        <v>559.1338160830064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y35" t="n">
-        <v>559.1338160830064</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7022,10 +7022,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7049,19 +7049,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>728.9050472788936</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>521.0535470733607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>313.2932483084068</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="37">
@@ -7125,22 +7125,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>344.6327430815143</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="C39" t="n">
-        <v>170.1797138003873</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="D39" t="n">
-        <v>170.1797138003873</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>359.1843292198467</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>212.6497712467317</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>73.91894582934717</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>73.91894582934717</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7262,16 +7262,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7283,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W39" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X39" t="n">
-        <v>720.6083788665362</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y39" t="n">
-        <v>512.8480801015824</v>
+        <v>518.4217842253022</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7432,16 +7432,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U41" t="n">
         <v>639.2227743377304</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.131911841645</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="C42" t="n">
-        <v>175.6788825605179</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="D42" t="n">
-        <v>175.6788825605179</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F42" t="n">
         <v>16.44142755506243</v>
@@ -7493,16 +7493,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N42" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7517,25 +7517,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="X42" t="n">
-        <v>557.7256941025342</v>
+        <v>538.7851048091347</v>
       </c>
       <c r="Y42" t="n">
-        <v>350.131911841645</v>
+        <v>331.1913225482455</v>
       </c>
     </row>
     <row r="43">
@@ -7593,16 +7593,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>245.4092504478133</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7651,7 +7651,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
         <v>176.2910403306274</v>
@@ -7669,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>660.5968149695918</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C45" t="n">
         <v>16.44142755506243</v>
@@ -7733,46 +7733,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V45" t="n">
-        <v>233.4664686820119</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="W45" t="n">
-        <v>233.4664686820119</v>
+        <v>398.4882390970787</v>
       </c>
       <c r="X45" t="n">
-        <v>233.4664686820119</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.87268642112264</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
         <v>16.44142755506243</v>
@@ -7845,13 +7845,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8072,7 +8072,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8227,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
         <v>231.2329957552695</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,16 +8698,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,13 +8774,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8938,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9965,13 +9965,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10448,7 +10448,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10588,10 +10588,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10910,7 +10910,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>131.3417120833333</v>
@@ -10919,10 +10919,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,10 +11299,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>318.3145018902242</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.1771387226392</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.30946265260823</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>173.6629242394455</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22865,16 +22865,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>125.5919361810337</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>17.57800512585095</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>230.1853526822936</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>140.6136200195524</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>189.8183595007702</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>17.57800512585095</v>
@@ -23317,7 +23317,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>296.6012590300472</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,22 +23345,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>22.15721268118166</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,19 +23384,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>179.8851038375709</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,7 +23497,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
@@ -23515,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23548,7 +23548,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>40.67891525576823</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>35.72191004214368</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23816,16 +23816,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>72.89701917320885</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23986,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,19 +24022,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>20.80116313523413</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24056,10 +24056,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>12.18951658227613</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24220,13 +24220,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>314.9231005625139</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>20.13049249612121</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24296,7 +24296,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24338,19 +24338,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>56.60859632365162</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>111.7041126250894</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>176.6722207847417</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>337.6653060427309</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24496,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>101.7811932823757</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24648,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>22.96896666454975</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>14.00696723134696</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24818,16 +24818,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,10 +24931,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24976,16 +24976,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="33">
@@ -25004,7 +25004,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>84.50966191897827</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25116,7 +25116,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
         <v>86.16204325169439</v>
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>374.8264583819999</v>
+        <v>393.4483115052977</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25198,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>48.16969849197095</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25253,7 +25253,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>59.59762388653245</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,10 +25393,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,10 +25408,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>199.2828334142263</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>8.255495472128132</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>35.30520815947198</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25523,7 +25523,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25538,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25599,10 +25599,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25684,7 +25684,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>70.32553552659914</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V41" t="n">
         <v>122.2344140318545</v>
@@ -25706,19 +25706,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25757,10 +25757,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>91.39448958411241</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,10 +25769,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>149.5886028276764</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25845,7 +25845,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>318.3145018902242</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25943,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157.1962373724677</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>85.29428513642381</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426251.7179565928</v>
+        <v>1032883.501389897</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>426251.7179565928</v>
+        <v>1032883.501389897</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426251.7179565929</v>
+        <v>1032883.501389897</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426251.7179565928</v>
+        <v>426251.7179565929</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448991.0855050287</v>
+        <v>448991.0855050285</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448991.0855050287</v>
+        <v>448991.0855050285</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448991.0855050285</v>
+        <v>448991.0855050284</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448991.0855050287</v>
+        <v>448991.0855050285</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448991.0855050287</v>
+        <v>448991.0855050285</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426251.7179565928</v>
+        <v>426251.7179565927</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="C2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="D2" t="n">
+        <v>451572.9734253559</v>
+      </c>
+      <c r="E2" t="n">
         <v>173533.4060184247</v>
-      </c>
-      <c r="C2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="D2" t="n">
-        <v>173533.4060184248</v>
-      </c>
-      <c r="E2" t="n">
-        <v>173533.4060184248</v>
       </c>
       <c r="F2" t="n">
         <v>173533.4060184248</v>
       </c>
       <c r="G2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="H2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844657</v>
       </c>
       <c r="I2" t="n">
         <v>182776.7397844656</v>
@@ -26343,10 +26343,10 @@
         <v>182776.7397844656</v>
       </c>
       <c r="L2" t="n">
-        <v>182776.7397844657</v>
+        <v>182776.7397844656</v>
       </c>
       <c r="M2" t="n">
-        <v>182776.7397844656</v>
+        <v>182776.7397844655</v>
       </c>
       <c r="N2" t="n">
         <v>182776.7397844656</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47787.18911168983</v>
+        <v>336325.0632591379</v>
       </c>
       <c r="C4" t="n">
-        <v>47787.18911168983</v>
+        <v>336325.0632591379</v>
       </c>
       <c r="D4" t="n">
-        <v>47787.18911168983</v>
+        <v>336325.0632591379</v>
       </c>
       <c r="E4" t="n">
         <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
       <c r="G4" t="n">
         <v>50385.00392753457</v>
@@ -26441,16 +26441,16 @@
         <v>50385.00392753458</v>
       </c>
       <c r="J4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="K4" t="n">
         <v>50385.00392753457</v>
       </c>
-      <c r="K4" t="n">
-        <v>50385.00392753458</v>
-      </c>
       <c r="L4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
         <v>50385.00392753457</v>
@@ -26459,7 +26459,7 @@
         <v>47787.18911168983</v>
       </c>
       <c r="P4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10749.37538319761</v>
+        <v>251.0686426808024</v>
       </c>
       <c r="C6" t="n">
-        <v>79623.13196488749</v>
+        <v>69124.82522437049</v>
       </c>
       <c r="D6" t="n">
-        <v>79623.13196488746</v>
+        <v>69124.82522437055</v>
       </c>
       <c r="E6" t="n">
-        <v>113250.7319648875</v>
+        <v>100612.5698100269</v>
       </c>
       <c r="F6" t="n">
-        <v>113250.7319648875</v>
+        <v>100612.569810027</v>
       </c>
       <c r="G6" t="n">
-        <v>108009.0241190023</v>
+        <v>95791.01349896187</v>
       </c>
       <c r="H6" t="n">
-        <v>117738.0670931694</v>
+        <v>105520.056473129</v>
       </c>
       <c r="I6" t="n">
-        <v>117738.0670931693</v>
+        <v>105520.0564731289</v>
       </c>
       <c r="J6" t="n">
-        <v>63965.55620295997</v>
+        <v>51747.54558291946</v>
       </c>
       <c r="K6" t="n">
-        <v>117738.0670931693</v>
+        <v>105520.0564731289</v>
       </c>
       <c r="L6" t="n">
-        <v>117738.0670931694</v>
+        <v>105520.0564731289</v>
       </c>
       <c r="M6" t="n">
-        <v>117738.0670931694</v>
+        <v>105520.0564731288</v>
       </c>
       <c r="N6" t="n">
-        <v>117738.0670931694</v>
+        <v>105520.0564731289</v>
       </c>
       <c r="O6" t="n">
-        <v>113250.7319648875</v>
+        <v>100612.569810027</v>
       </c>
       <c r="P6" t="n">
-        <v>113250.7319648875</v>
+        <v>100612.569810027</v>
       </c>
     </row>
   </sheetData>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>190.8509129149012</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>26.49796730351827</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>264.2850375838066</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>158.7650282937152</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,19 +27751,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>58.7955808554722</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27934,25 +27934,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27985,22 +27985,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>50.88719315284814</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34704,7 +34704,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34792,7 +34792,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34947,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>91.61977832229879</v>
+      </c>
+      <c r="O6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O9" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35658,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36685,13 +36685,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37630,7 +37630,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38019,10 +38019,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
